--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS149-001 until DPLKKPS149-002 - Kepesertaan - Transaksi - Corporate - Register Maintenance Corporate.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS149-001 until DPLKKPS149-002 - Kepesertaan - Transaksi - Corporate - Register Maintenance Corporate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{779F01F4-0F1A-422A-A523-400CC581FB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3514EB-86E4-43FE-A9C9-E04D4B493A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS149-001" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="139">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -311,9 +311,6 @@
     <t>JABATAN_CP</t>
   </si>
   <si>
-    <t>IEMAIL_CP</t>
-  </si>
-  <si>
     <t>NO_TELEPON_CP</t>
   </si>
   <si>
@@ -326,9 +323,6 @@
     <t>NOMOR_REKENING_RB</t>
   </si>
   <si>
-    <t>NAMA_PEMENGANG_REKENING_RB</t>
-  </si>
-  <si>
     <t>CABANG_BANK_RB</t>
   </si>
   <si>
@@ -347,24 +341,6 @@
     <t>WARGA_NEGARA_SM</t>
   </si>
   <si>
-    <t>NO_URUT_PM</t>
-  </si>
-  <si>
-    <t>NAMA_PM</t>
-  </si>
-  <si>
-    <t>ALAMAT_PM</t>
-  </si>
-  <si>
-    <t>KEPEMILIKAN_PM</t>
-  </si>
-  <si>
-    <t>JABATAN_PM</t>
-  </si>
-  <si>
-    <t>WARGA_NEGARA_PM</t>
-  </si>
-  <si>
     <t>AKTA_PENDIRIAN_D</t>
   </si>
   <si>
@@ -422,30 +398,7 @@
     <t>KEP.TRX.445 Pending Register</t>
   </si>
   <si>
-    <t>Username : 30707;
-Password : bni1234;
-Role : 10 - Asisten Settlement;
-;
-Keterangan Perubahan : Pembaruan Data PT OBAT MERCON;
-Utama;
-Pilih Perusahaan : PT OBAT MERCON;
-;
-Contact Person;
-No Urut : 009;
-Nama : Tatang;
-Jabatan : Manager;
-Email : tatang@pn.co.id;
-No Telepon : 021787878;
-No HP : 087878787878;
-;
-Status Register : 1 : SETUJU;
-Keterangan Register : KEP.TRX.445 Data disetujui;</t>
-  </si>
-  <si>
     <t>Pembaruan Data PT OBAT MERCON</t>
-  </si>
-  <si>
-    <t>PT OBAT MERCON</t>
   </si>
   <si>
     <t>KEP.TRX.445 Data disetujui</t>
@@ -496,6 +449,29 @@
   </si>
   <si>
     <t>NAMA_PEMEGANG_REKENING_RB</t>
+  </si>
+  <si>
+    <t>Username : 30707;
+Password : bni1234;
+Role : 10 - Asisten Settlement;
+;
+Keterangan Perubahan : Pembaruan Data PT OBAT MERCON;
+Utama;
+Pilih Perusahaan : PRS2208014;
+;
+Contact Person;
+No Urut : 009;
+Nama : Tatang;
+Jabatan : Manager;
+Email : tatang@pn.co.id;
+No Telepon : 021787878;
+No HP : 087878787878;
+;
+Status Register : 1 : SETUJU;
+Keterangan Register : KEP.TRX.445 Data disetujui;</t>
+  </si>
+  <si>
+    <t>PRS2208014</t>
   </si>
 </sst>
 </file>
@@ -955,7 +931,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DH7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1067,7 +1045,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>9</v>
@@ -1082,10 +1060,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>18</v>
@@ -1304,73 +1282,73 @@
         <v>95</v>
       </c>
       <c r="CJ1" s="8" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="CK1" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="CL1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CM1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CN1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CO1" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CQ1" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="CR1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CS1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CT1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CU1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CV1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="CW1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CX1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="CZ1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="DB1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="DC1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="CV1" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="CW1" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="CX1" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="CY1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="CZ1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="DA1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="DB1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="DC1" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="DD1" s="8" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="DE1" s="8" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="DF1" s="8" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="DG1" s="8" t="s">
         <v>15</v>
@@ -1384,19 +1362,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G2" s="9">
         <v>30707</v>
@@ -1405,7 +1383,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>11</v>
@@ -1417,13 +1395,13 @@
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -1536,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="DH2" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:112" x14ac:dyDescent="0.25">
@@ -1618,35 +1596,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21615457-D7EB-487E-8252-E4BBEAA10214}">
   <dimension ref="A1:DH7"/>
   <sheetViews>
-    <sheetView topLeftCell="CC1" workbookViewId="0">
-      <selection activeCell="CF2" sqref="CF2"/>
+    <sheetView tabSelected="1" topLeftCell="CV1" workbookViewId="0">
+      <selection activeCell="DG2" sqref="DG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="62.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -1686,7 +1664,8 @@
     <col min="109" max="109" width="19.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="5.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="112" max="16384" width="9.140625" style="1"/>
+    <col min="112" max="112" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="113" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:112" x14ac:dyDescent="0.25">
@@ -1715,7 +1694,7 @@
         <v>8</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>9</v>
@@ -1730,10 +1709,10 @@
         <v>12</v>
       </c>
       <c r="N1" s="8" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>18</v>
@@ -1952,73 +1931,73 @@
         <v>95</v>
       </c>
       <c r="CJ1" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="CK1" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="CK1" s="8" t="s">
+      <c r="CL1" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="CL1" s="8" t="s">
+      <c r="CM1" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="CM1" s="8" t="s">
+      <c r="CN1" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="CN1" s="8" t="s">
+      <c r="CO1" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="CP1" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="CO1" s="8" t="s">
+      <c r="CQ1" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="CP1" s="8" t="s">
+      <c r="CR1" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="CQ1" s="8" t="s">
+      <c r="CS1" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="CR1" s="8" t="s">
+      <c r="CT1" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="CS1" s="8" t="s">
+      <c r="CU1" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="CT1" s="8" t="s">
+      <c r="CV1" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="CW1" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="CX1" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="CY1" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="CZ1" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="DA1" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="DB1" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="CU1" s="8" t="s">
+      <c r="DC1" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="CV1" s="8" t="s">
+      <c r="DD1" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="CW1" s="8" t="s">
+      <c r="DE1" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="CX1" s="8" t="s">
+      <c r="DF1" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="CY1" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="CZ1" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="DA1" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="DB1" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="DC1" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="DD1" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="DE1" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="DF1" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="DG1" s="8" t="s">
         <v>15</v>
@@ -2032,19 +2011,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G2" s="9">
         <v>30707</v>
@@ -2053,7 +2032,7 @@
         <v>13</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>11</v>
@@ -2065,13 +2044,13 @@
         <v>17</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
@@ -2184,7 +2163,7 @@
         <v>1</v>
       </c>
       <c r="DH2" s="8" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:112" x14ac:dyDescent="0.25">
